--- a/data_excel/83.xlsx
+++ b/data_excel/83.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\林鈺馨\Desktop\(1-100)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35773918-EA3B-4390-89A0-33DB4ADE1F22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>有</t>
   </si>
@@ -97,6 +96,16 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
   </si>
   <si>
     <t>虛詞</t>
@@ -106,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +131,21 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,12 +163,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -446,16 +510,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -495,7 +559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -515,7 +579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -535,7 +599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -549,44 +613,55 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data_excel/83.xlsx
+++ b/data_excel/83.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\林鈺馨\Desktop\(1-100)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35773918-EA3B-4390-89A0-33DB4ADE1F22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>有</t>
   </si>
@@ -96,16 +97,6 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虛詞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被</t>
-  </si>
-  <si>
-    <t>passive</t>
   </si>
   <si>
     <t>虛詞</t>
@@ -115,8 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,21 +122,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -163,52 +139,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -510,16 +446,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -559,7 +495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -579,7 +515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -599,7 +535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -613,55 +549,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data_excel/83.xlsx
+++ b/data_excel/83.xlsx
@@ -30,9 +30,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>300</t>
   </si>
   <si>
@@ -109,6 +106,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -200,15 +201,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -514,12 +531,12 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,142 +544,142 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
+      <c r="F1" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
